--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\GitHub\FD-SVV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14400" windowHeight="16260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="14400" windowHeight="16260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="cm_delta" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="147">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -451,6 +452,24 @@
   </si>
   <si>
     <t>cm_delta de [1/rad]</t>
+  </si>
+  <si>
+    <t>mass flow</t>
+  </si>
+  <si>
+    <t>[lbs/sec]</t>
+  </si>
+  <si>
+    <t>time elapsed</t>
+  </si>
+  <si>
+    <t>momentary mass</t>
+  </si>
+  <si>
+    <t>[kg]</t>
+  </si>
+  <si>
+    <t>mass flow vinden, en dan momentary mass from linearization of mass flow after take-off vanaf laatste meting</t>
   </si>
 </sst>
 </file>
@@ -566,7 +585,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -600,6 +619,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1640,7 +1661,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>426601</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
@@ -1703,6 +1724,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>491760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350401</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5797185" y="987780"/>
+          <a:ext cx="2297041" cy="3332460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1997,11 +2062,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59:G65"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2222,7 +2291,10 @@
       <c r="B28" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2">
+        <f>19*60+17</f>
+        <v>1157</v>
+      </c>
       <c r="D28" s="2">
         <v>5010</v>
       </c>
@@ -3106,7 +3178,10 @@
       <c r="B76" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2">
+        <f>52*60+46</f>
+        <v>3166</v>
+      </c>
       <c r="D76" s="2">
         <v>5790</v>
       </c>
@@ -3148,63 +3223,115 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
       <c r="D81" t="s">
         <v>53</v>
       </c>
+      <c r="F81" t="s">
+        <v>22</v>
+      </c>
       <c r="G81" t="s">
         <v>53</v>
       </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
       <c r="J81" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
       <c r="D82" t="s">
         <v>42</v>
       </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
       <c r="G82" t="s">
         <v>42</v>
       </c>
+      <c r="I82" t="s">
+        <v>32</v>
+      </c>
       <c r="J82" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>54</v>
       </c>
+      <c r="C83">
+        <f>53*60+57</f>
+        <v>3237</v>
+      </c>
       <c r="D83" s="5" t="s">
         <v>101</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
       </c>
+      <c r="F83">
+        <f>3600+60+57</f>
+        <v>3717</v>
+      </c>
       <c r="G83" s="5" t="s">
         <v>103</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
       </c>
+      <c r="I83">
+        <f>59*60+10</f>
+        <v>3550</v>
+      </c>
       <c r="J83" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83" s="15">
+        <f>(L76-I28)/(C76-C28)</f>
+        <v>0.273768043802887</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
+      <c r="C84">
+        <f>3600+35</f>
+        <v>3635</v>
+      </c>
       <c r="D84" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
       </c>
+      <c r="F84">
+        <f>3600+120+47</f>
+        <v>3767</v>
+      </c>
       <c r="G84" s="5" t="s">
         <v>104</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
+      </c>
+      <c r="I84">
+        <f>3600+320</f>
+        <v>3920</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>105</v>
@@ -3302,8 +3429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3813,11 +3940,11 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <f>G31*PI()/180</f>
+        <f t="shared" ref="I31:J37" si="2">G31*PI()/180</f>
         <v>5.9341194567807204E-2</v>
       </c>
       <c r="J31">
-        <f>H31*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>1.7453292519943295E-2</v>
       </c>
     </row>
@@ -3829,11 +3956,11 @@
         <v>0.6</v>
       </c>
       <c r="I32">
-        <f>G32*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>7.15584993317675E-2</v>
       </c>
       <c r="J32">
-        <f>H32*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>1.0471975511965976E-2</v>
       </c>
     </row>
@@ -3845,11 +3972,11 @@
         <v>0.4</v>
       </c>
       <c r="I33">
-        <f>G33*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>7.8539816339744828E-2</v>
       </c>
       <c r="J33">
-        <f>H33*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>6.9813170079773184E-3</v>
       </c>
     </row>
@@ -3861,11 +3988,11 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f>G34*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>9.2502450355699456E-2</v>
       </c>
       <c r="J34">
-        <f>H34*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3877,11 +4004,11 @@
         <v>-0.4</v>
       </c>
       <c r="I35">
-        <f>G35*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.10995574287564275</v>
       </c>
       <c r="J35">
-        <f>H35*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>-6.9813170079773184E-3</v>
       </c>
     </row>
@@ -3893,11 +4020,11 @@
         <v>-0.9</v>
       </c>
       <c r="I36">
-        <f>G36*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.12740903539558604</v>
       </c>
       <c r="J36">
-        <f>H36*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>-1.5707963267948967E-2</v>
       </c>
     </row>
@@ -3909,11 +4036,11 @@
         <v>-1.5</v>
       </c>
       <c r="I37">
-        <f>G37*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.14835298641951802</v>
       </c>
       <c r="J37">
-        <f>H37*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>-2.6179938779914941E-2</v>
       </c>
     </row>
@@ -3953,4 +4080,1391 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81:E88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>43171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="H8" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="H9" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="H10" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="H11" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="H12" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="H13" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="H14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="H15" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="H16" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>SUM(H8:H16)</f>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="2">
+        <f>19*60+17</f>
+        <v>1157</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5010</v>
+      </c>
+      <c r="E28" s="2">
+        <v>249</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="2">
+        <v>798</v>
+      </c>
+      <c r="H28" s="2">
+        <v>813</v>
+      </c>
+      <c r="I28" s="2">
+        <v>360</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E29" s="2">
+        <v>221</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="2">
+        <v>673</v>
+      </c>
+      <c r="H29" s="2">
+        <v>682</v>
+      </c>
+      <c r="I29" s="2">
+        <v>412</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E30" s="2">
+        <v>192</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="2">
+        <v>561</v>
+      </c>
+      <c r="H30" s="2">
+        <v>579</v>
+      </c>
+      <c r="I30" s="2">
+        <v>447</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>5030</v>
+      </c>
+      <c r="E31" s="2">
+        <v>163</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="2">
+        <v>463</v>
+      </c>
+      <c r="H31" s="2">
+        <v>484</v>
+      </c>
+      <c r="I31" s="2">
+        <v>478</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>5020</v>
+      </c>
+      <c r="E32" s="2">
+        <v>130</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="2">
+        <v>443</v>
+      </c>
+      <c r="H32" s="2">
+        <v>467</v>
+      </c>
+      <c r="I32" s="2">
+        <v>532</v>
+      </c>
+      <c r="J32" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>5110</v>
+      </c>
+      <c r="E33" s="2">
+        <v>118</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="2">
+        <v>474</v>
+      </c>
+      <c r="H33" s="2">
+        <v>499</v>
+      </c>
+      <c r="I33" s="2">
+        <v>570</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>6060</v>
+      </c>
+      <c r="E59" s="2">
+        <v>161</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>462</v>
+      </c>
+      <c r="K59" s="2">
+        <v>486</v>
+      </c>
+      <c r="L59" s="2">
+        <v>664</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <v>6350</v>
+      </c>
+      <c r="E60" s="2">
+        <v>150</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60" s="2">
+        <v>-23</v>
+      </c>
+      <c r="J60" s="2">
+        <v>458</v>
+      </c>
+      <c r="K60" s="2">
+        <v>482</v>
+      </c>
+      <c r="L60" s="2">
+        <v>694</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <v>6550</v>
+      </c>
+      <c r="E61" s="2">
+        <v>140</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61" s="2">
+        <v>-29</v>
+      </c>
+      <c r="J61" s="2">
+        <v>454</v>
+      </c>
+      <c r="K61" s="2">
+        <v>477</v>
+      </c>
+      <c r="L61" s="2">
+        <v>730</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
+        <v>6880</v>
+      </c>
+      <c r="E62" s="2">
+        <v>130</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" s="2">
+        <v>-46</v>
+      </c>
+      <c r="J62" s="2">
+        <v>449</v>
+      </c>
+      <c r="K62" s="2">
+        <v>473</v>
+      </c>
+      <c r="L62" s="2">
+        <v>755</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
+        <v>6160</v>
+      </c>
+      <c r="E63" s="2">
+        <v>173</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63" s="2">
+        <v>26</v>
+      </c>
+      <c r="J63" s="2">
+        <v>465</v>
+      </c>
+      <c r="K63" s="2">
+        <v>489</v>
+      </c>
+      <c r="L63" s="2">
+        <v>798</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2">
+        <v>5810</v>
+      </c>
+      <c r="E64" s="2">
+        <v>179</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I64" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" s="2">
+        <v>472</v>
+      </c>
+      <c r="K64" s="2">
+        <v>496</v>
+      </c>
+      <c r="L64" s="2">
+        <v>825</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2">
+        <v>5310</v>
+      </c>
+      <c r="E65" s="2">
+        <v>192</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" s="2">
+        <v>482</v>
+      </c>
+      <c r="K65" s="2">
+        <v>505</v>
+      </c>
+      <c r="L65" s="2">
+        <v>846</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2">
+        <v>5730</v>
+      </c>
+      <c r="E75" s="2">
+        <v>161</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>471</v>
+      </c>
+      <c r="K75" s="2">
+        <v>493</v>
+      </c>
+      <c r="L75" s="2">
+        <v>881</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="2">
+        <f>52*60+46</f>
+        <v>3166</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5790</v>
+      </c>
+      <c r="E76" s="2">
+        <v>161</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I76" s="2">
+        <v>-30</v>
+      </c>
+      <c r="J76" s="2">
+        <v>468</v>
+      </c>
+      <c r="K76" s="2">
+        <v>490</v>
+      </c>
+      <c r="L76" s="2">
+        <v>910</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G81" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
+      <c r="D82" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83">
+        <f>53*60+57</f>
+        <v>3237</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="16">
+        <f>($D$18-$L$76-$G$83*(C83-$C$76)+cm_delta!$H$14)*0.453592</f>
+        <v>6267.6322844704291</v>
+      </c>
+      <c r="G83" s="15">
+        <f>(L76-I28)/(C76-C28)</f>
+        <v>0.273768043802887</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <f>59*60+10</f>
+        <v>3550</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="16">
+        <f>($D$18-$L$76-$G$83*(C84-$C$76)+cm_delta!$H$14)*0.453592</f>
+        <v>6228.7642591842168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85">
+        <f>3600+35</f>
+        <v>3635</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" s="16">
+        <f>($D$18-$L$76-$G$83*(C85-$C$76)+cm_delta!$H$14)*0.453592</f>
+        <v>6218.2090446496231</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86">
+        <f>3600+60+57</f>
+        <v>3717</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86" s="16">
+        <f>($D$18-$L$76-$G$83*(C86-$C$76)+cm_delta!$H$14)*0.453592</f>
+        <v>6208.0263670986023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87">
+        <f>3600+120+47</f>
+        <v>3767</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="16">
+        <f>($D$18-$L$76-$G$83*(C87-$C$76)+cm_delta!$H$14)*0.453592</f>
+        <v>6201.8174173723701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88">
+        <f>3600+320</f>
+        <v>3920</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="16">
+        <f>($D$18-$L$76-$G$83*(C88-$C$76)+cm_delta!$H$14)*0.453592</f>
+        <v>6182.8180312101003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A83:E88">
+    <sortCondition ref="C83:C88"/>
+  </sortState>
+  <conditionalFormatting sqref="B34:J34">
+    <cfRule type="expression" priority="1">
+      <formula>LEN(TRIM(B34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" priority="2">
+      <formula>LEN(TRIM(D18))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:J33 K28">
+    <cfRule type="expression" priority="3">
+      <formula>LEN(TRIM(B28))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:M65">
+    <cfRule type="expression" priority="4">
+      <formula>LEN(TRIM(C59))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:J50">
+    <cfRule type="expression" priority="5">
+      <formula>LEN(TRIM(C44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="expression" priority="6">
+      <formula>LEN(TRIM(C70))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="expression" priority="7">
+      <formula>LEN(TRIM(C71))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="expression" priority="8">
+      <formula>LEN(TRIM(H71))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:M76">
+    <cfRule type="expression" priority="9">
+      <formula>LEN(TRIM(B75))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="expression" priority="10">
+      <formula>LEN(TRIM(D3))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="expression" priority="11">
+      <formula>LEN(TRIM(E39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83:D84">
+    <cfRule type="expression" priority="12">
+      <formula>LEN(TRIM(D83))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:D86">
+    <cfRule type="expression" priority="13">
+      <formula>LEN(TRIM(D85))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D88">
+    <cfRule type="expression" priority="14">
+      <formula>LEN(TRIM(D87))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:B65">
+    <cfRule type="expression" priority="15">
+      <formula>LEN(TRIM(B59))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B50">
+    <cfRule type="expression" priority="16">
+      <formula>LEN(TRIM(B44))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
+++ b/REFERENCE_Post_Flight_Datasheet_Flight.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stein\OneDrive\Documenten\GitHub\FD-SVV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="166" documentId="11_6A50CE13ABC2E454B77FC9EE718A0557A58DA3FF" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3E136591-A6F9-4BD3-9D6E-CECD2F67FB4D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="14400" windowHeight="16260" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="cm_delta" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="201">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -470,14 +477,177 @@
   </si>
   <si>
     <t>mass flow vinden, en dan momentary mass from linearization of mass flow after take-off vanaf laatste meting</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>[kg/m^3]</t>
+  </si>
+  <si>
+    <t>density taken from the densities at the start of the motions of the real flight data</t>
+  </si>
+  <si>
+    <t>S [m^2]</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>SHORT PERIOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu_c </t>
+  </si>
+  <si>
+    <t>C_z_alpha</t>
+  </si>
+  <si>
+    <t>C_m_alphadot</t>
+  </si>
+  <si>
+    <t>C_m_q</t>
+  </si>
+  <si>
+    <t>C_m_alpha</t>
+  </si>
+  <si>
+    <t>plus/min j</t>
+  </si>
+  <si>
+    <t>A_short</t>
+  </si>
+  <si>
+    <t>B_short</t>
+  </si>
+  <si>
+    <t>C_short</t>
+  </si>
+  <si>
+    <t>PHUGOID</t>
+  </si>
+  <si>
+    <t>mu_c</t>
+  </si>
+  <si>
+    <t>C_x_u</t>
+  </si>
+  <si>
+    <t>C_m_u</t>
+  </si>
+  <si>
+    <t>C_x_alpha</t>
+  </si>
+  <si>
+    <t>C_z_u</t>
+  </si>
+  <si>
+    <t>C_z_0</t>
+  </si>
+  <si>
+    <t>Theta0</t>
+  </si>
+  <si>
+    <t>V_t_0</t>
+  </si>
+  <si>
+    <t>A_phu</t>
+  </si>
+  <si>
+    <t>B_phu</t>
+  </si>
+  <si>
+    <t>C_phu</t>
+  </si>
+  <si>
+    <t>eigenvalue_phu</t>
+  </si>
+  <si>
+    <t>eigenvalue_short</t>
+  </si>
+  <si>
+    <t>b [m]</t>
+  </si>
+  <si>
+    <t>mu_b</t>
+  </si>
+  <si>
+    <t>DUTCH ROLL</t>
+  </si>
+  <si>
+    <t>K_z^2</t>
+  </si>
+  <si>
+    <t>C_n_r</t>
+  </si>
+  <si>
+    <t>C_y_beta</t>
+  </si>
+  <si>
+    <t>C_n_beta</t>
+  </si>
+  <si>
+    <t>A_dr</t>
+  </si>
+  <si>
+    <t>B_dr</t>
+  </si>
+  <si>
+    <t>C_dr</t>
+  </si>
+  <si>
+    <t>eigenvalue_dr</t>
+  </si>
+  <si>
+    <t>SPIRAL</t>
+  </si>
+  <si>
+    <t>C_L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w </t>
+  </si>
+  <si>
+    <t>v_t_0</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>C_l_beta</t>
+  </si>
+  <si>
+    <t>C_l_r</t>
+  </si>
+  <si>
+    <t>C_l_p</t>
+  </si>
+  <si>
+    <t>c_n_p</t>
+  </si>
+  <si>
+    <t>eigenvalue_spiral</t>
+  </si>
+  <si>
+    <t>APERIODIC ROLL</t>
+  </si>
+  <si>
+    <t>eigenvalue_aper_roll</t>
+  </si>
+  <si>
+    <t>K_x^2</t>
+  </si>
+  <si>
+    <t>k_y^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -591,7 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -606,33 +776,29 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -643,7 +809,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,7 +895,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -741,7 +907,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -816,7 +981,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1667,7 +1831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1711,7 +1881,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1746,7 +1922,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2059,29 +2241,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A65" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>43171</v>
       </c>
       <c r="F3" t="s">
@@ -2089,7 +2271,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2101,13 +2283,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -2115,7 +2297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2124,7 +2306,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2133,7 +2315,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2324,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2151,7 +2333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2160,7 +2342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2178,7 +2360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2187,7 +2369,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2196,13 +2378,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H17">
         <f>SUM(H8:H16)</f>
         <v>695</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2210,12 +2392,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2223,7 +2405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2255,7 +2437,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -2284,11 +2466,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="2">
@@ -2318,7 +2500,7 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2348,7 +2530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2378,7 +2560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2408,7 +2590,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2438,7 +2620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -2468,7 +2650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -2482,23 +2664,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2530,7 +2712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -2559,7 +2741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2573,7 +2755,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2587,7 +2769,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2601,7 +2783,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2615,7 +2797,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2629,7 +2811,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2643,7 +2825,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2657,17 +2839,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +2857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -2716,7 +2898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -2754,7 +2936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2793,7 +2975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2832,7 +3014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2871,7 +3053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2910,7 +3092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2949,7 +3131,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -2988,7 +3170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3027,23 +3209,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -3053,7 +3235,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -3094,7 +3276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -3132,7 +3314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3171,7 +3353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3213,17 +3395,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>22</v>
       </c>
@@ -3246,7 +3428,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>32</v>
       </c>
@@ -3269,7 +3451,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -3300,12 +3482,12 @@
       <c r="J83" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L83" s="13">
         <f>(L76-I28)/(C76-C28)</f>
         <v>0.273768043802887</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -3426,21 +3608,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B1" t="s">
@@ -3452,7 +3634,7 @@
       <c r="D1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>115</v>
       </c>
       <c r="G1" t="s">
@@ -3465,7 +3647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>131</v>
       </c>
@@ -3487,7 +3669,7 @@
         <v>27436.528528923252</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>131</v>
       </c>
@@ -3509,7 +3691,7 @@
         <v>26570.111838536199</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>170</v>
       </c>
@@ -3531,7 +3713,7 @@
         <v>27734.152582873001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>214</v>
       </c>
@@ -3553,7 +3735,7 @@
         <v>31138.089911009403</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>214</v>
       </c>
@@ -3575,7 +3757,7 @@
         <v>28779.143705629904</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>251</v>
       </c>
@@ -3597,7 +3779,7 @@
         <v>41502.020856326249</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>251</v>
       </c>
@@ -3619,7 +3801,7 @@
         <v>43162.1016905793</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>288</v>
       </c>
@@ -3630,7 +3812,7 @@
         <f t="shared" si="0"/>
         <v>54604.093097980804</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>134</v>
       </c>
       <c r="H9" s="2">
@@ -3641,7 +3823,7 @@
         <v>25406.0710941994</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>288</v>
       </c>
@@ -3663,7 +3845,7 @@
         <v>43175.329426310404</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -3695,7 +3877,7 @@
         <v>294903.54963438713</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -3723,7 +3905,7 @@
         <v>2678013</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -3755,7 +3937,7 @@
         <v>2972916.5496343873</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -3783,7 +3965,7 @@
         <v>1156680</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -3815,7 +3997,7 @@
         <v>4129596.5496343873</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>116</v>
       </c>
@@ -3824,11 +4006,11 @@
         <v>-1.979901053427966</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="12" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f>G20*0.0254</f>
         <v>-5.0289486757070331E-2</v>
       </c>
@@ -3836,7 +4018,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>119</v>
       </c>
@@ -3848,7 +4030,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>118</v>
       </c>
@@ -3860,7 +4042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>120</v>
       </c>
@@ -3871,7 +4053,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>121</v>
       </c>
@@ -3883,7 +4065,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F26" t="s">
         <v>122</v>
       </c>
@@ -3895,11 +4077,11 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="11" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <f>-1/G22*G24*G21/G23</f>
         <v>-1.2860457721471781</v>
       </c>
@@ -3907,7 +4089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
         <v>132</v>
       </c>
@@ -3918,7 +4100,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>130</v>
       </c>
@@ -3932,8 +4114,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="14">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G31" s="2">
         <v>3.4</v>
       </c>
       <c r="H31" s="2">
@@ -3948,8 +4130,8 @@
         <v>1.7453292519943295E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="14">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G32" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="H32" s="2">
@@ -3964,8 +4146,8 @@
         <v>1.0471975511965976E-2</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="14">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G33" s="2">
         <v>4.5</v>
       </c>
       <c r="H33" s="2">
@@ -3980,8 +4162,8 @@
         <v>6.9813170079773184E-3</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="14">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G34" s="2">
         <v>5.3</v>
       </c>
       <c r="H34" s="2">
@@ -3996,8 +4178,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="14">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G35" s="2">
         <v>6.3</v>
       </c>
       <c r="H35" s="2">
@@ -4012,8 +4194,8 @@
         <v>-6.9813170079773184E-3</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="14">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="2">
         <v>7.3</v>
       </c>
       <c r="H36" s="2">
@@ -4028,8 +4210,8 @@
         <v>-1.5707963267948967E-2</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="14">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="G37" s="2">
         <v>8.5</v>
       </c>
       <c r="H37" s="2">
@@ -4044,11 +4226,11 @@
         <v>-2.6179938779914941E-2</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F39" s="11" t="s">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F39" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <f>-G29*G27</f>
         <v>-0.61691615689900137</v>
       </c>
@@ -4056,11 +4238,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="11" t="s">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F40" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>4.6248127110932096</v>
       </c>
       <c r="H40" t="s">
@@ -4068,7 +4250,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="G31:H37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G31:H37">
     <sortCondition ref="G30"/>
   </sortState>
   <conditionalFormatting sqref="G31:H37">
@@ -4083,29 +4265,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81:E88"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O129" sqref="O129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>43171</v>
       </c>
       <c r="F3" t="s">
@@ -4113,7 +4296,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4125,13 +4308,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -4139,7 +4322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4331,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4157,7 +4340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4358,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4184,7 +4367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4193,7 +4376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4202,7 +4385,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -4211,7 +4394,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -4220,13 +4403,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H17">
         <f>SUM(H8:H16)</f>
         <v>695</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4234,12 +4417,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4247,7 +4430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4279,7 +4462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -4308,11 +4491,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>99</v>
       </c>
       <c r="C28" s="2">
@@ -4342,11 +4525,11 @@
       </c>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="2"/>
@@ -4372,11 +4555,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="2"/>
@@ -4402,7 +4585,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4432,7 +4615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -4462,7 +4645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -4492,7 +4675,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -4506,23 +4689,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -4554,7 +4737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -4583,7 +4766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4597,7 +4780,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4611,7 +4794,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4625,7 +4808,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4639,7 +4822,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -4653,7 +4836,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4667,7 +4850,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -4681,17 +4864,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -4699,7 +4882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -4740,7 +4923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -4778,7 +4961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4817,7 +5000,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4856,7 +5039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4895,7 +5078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -4934,7 +5117,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -4973,7 +5156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -5012,7 +5195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -5051,23 +5234,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>49</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -5077,7 +5260,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -5118,7 +5301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -5156,7 +5339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5195,7 +5378,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -5237,45 +5420,63 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>143</v>
       </c>
       <c r="D81" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>147</v>
+      </c>
+      <c r="I81" t="s">
+        <v>163</v>
+      </c>
+      <c r="J81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>32</v>
       </c>
       <c r="D82" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>148</v>
+      </c>
+      <c r="I82" t="s">
+        <v>151</v>
+      </c>
+      <c r="J82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -5286,16 +5487,27 @@
       <c r="D83" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="16">
-        <f>($D$18-$L$76-$G$83*(C83-$C$76)+cm_delta!$H$14)*0.453592</f>
+      <c r="E83" s="14">
+        <f>($D$18-$L$76-$F$83*(C83-$C$76)+cm_delta!$H$14)*0.453592</f>
         <v>6267.6322844704291</v>
       </c>
-      <c r="G83" s="15">
+      <c r="F83" s="13">
         <f>(L76-I28)/(C76-C28)</f>
         <v>0.273768043802887</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I83">
+        <f>E83/(H83*$B$93*$B$94)</f>
+        <v>102.18395117117909</v>
+      </c>
+      <c r="J83">
+        <f>E83/(H83*$B$93*$B$95)</f>
+        <v>13.209865449311689</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -5306,12 +5518,23 @@
       <c r="D84" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="16">
-        <f>($D$18-$L$76-$G$83*(C84-$C$76)+cm_delta!$H$14)*0.453592</f>
+      <c r="E84" s="14">
+        <f>($D$18-$L$76-$F$83*(C84-$C$76)+cm_delta!$H$14)*0.453592</f>
         <v>6228.7642591842168</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I84">
+        <f t="shared" ref="I84:I88" si="0">E84/(H84*$B$93*$B$94)</f>
+        <v>101.65253488216952</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ref="J84:J88" si="1">E84/(H84*$B$93*$B$95)</f>
+        <v>13.141166425688802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>57</v>
       </c>
@@ -5322,12 +5545,23 @@
       <c r="D85" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="16">
-        <f>($D$18-$L$76-$G$83*(C85-$C$76)+cm_delta!$H$14)*0.453592</f>
+      <c r="E85" s="14">
+        <f>($D$18-$L$76-$F$83*(C85-$C$76)+cm_delta!$H$14)*0.453592</f>
         <v>6218.2090446496231</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>0.996</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="0"/>
+        <v>101.17461182259014</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>13.079382757707602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -5338,12 +5572,23 @@
       <c r="D86" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="16">
-        <f>($D$18-$L$76-$G$83*(C86-$C$76)+cm_delta!$H$14)*0.453592</f>
+      <c r="E86" s="14">
+        <f>($D$18-$L$76-$F$83*(C86-$C$76)+cm_delta!$H$14)*0.453592</f>
         <v>6208.0263670986023</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="0"/>
+        <v>100.50439241181789</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>12.992739912756473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -5354,12 +5599,23 @@
       <c r="D87" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E87" s="16">
-        <f>($D$18-$L$76-$G$83*(C87-$C$76)+cm_delta!$H$14)*0.453592</f>
+      <c r="E87" s="14">
+        <f>($D$18-$L$76-$F$83*(C87-$C$76)+cm_delta!$H$14)*0.453592</f>
         <v>6201.8174173723701</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="0"/>
+        <v>100.40387307075038</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>12.979745240351107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -5370,18 +5626,472 @@
       <c r="D88" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E88" s="16">
-        <f>($D$18-$L$76-$G$83*(C88-$C$76)+cm_delta!$H$14)*0.453592</f>
+      <c r="E88" s="14">
+        <f>($D$18-$L$76-$F$83*(C88-$C$76)+cm_delta!$H$14)*0.453592</f>
         <v>6182.8180312101003</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="0"/>
+        <v>110.47009941672643</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
+        <v>14.281060115031401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>146</v>
       </c>
     </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94">
+        <v>2.0569000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95">
+        <v>15.911</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98">
+        <f>I85</f>
+        <v>101.17461182259014</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99">
+        <v>1.3925000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100">
+        <v>-5.7434000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102">
+        <v>-8.7941000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103">
+        <f>cm_delta!G39</f>
+        <v>-0.61691615689900137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105">
+        <f>4*(B98^2)*(B99)</f>
+        <v>57016.202571406502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106">
+        <f>-2*B98*((B99)*B100+B101+B102)</f>
+        <v>3361.7863953833298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107">
+        <f>B100*B102-2*B98*B103</f>
+        <v>175.34053934268115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108">
+        <f>(-B106/(2*B105))</f>
+        <v>-2.9480974212313275E-2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>158</v>
+      </c>
+      <c r="D108">
+        <f>(SQRT(4*B105*B107-B106^2)/(2*B105))</f>
+        <v>4.6969647732112214E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111">
+        <f>I83</f>
+        <v>102.18395117117909</v>
+      </c>
+      <c r="D111" t="s">
+        <v>169</v>
+      </c>
+      <c r="E111">
+        <v>7.0040000000000005E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112">
+        <v>-2.7900000000000001E-2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112">
+        <v>93.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113">
+        <v>6.9900000000000004E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114">
+        <v>-0.47970000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115">
+        <v>-0.37619999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116">
+        <f>-(E83*9.81*COS(E111))/(0.5*H83*E112^2*B93)</f>
+        <v>-0.46834318285826826</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118">
+        <f>2*B111*(B100*B102-2*B111*B103)</f>
+        <v>36088.488913039306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119">
+        <f>2*B111*(B112*B103-B113*B114) + B102*(B115*B114-B112*B100)</f>
+        <v>10.192401831223652</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120">
+        <f>B116*(B113*B100-B115*B103)</f>
+        <v>0.29671766117764259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122">
+        <f>-B119/(2*B118)</f>
+        <v>-1.4121402888028634E-4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122">
+        <f>(SQRT(4*B118*B120-B119^2))/(2*B118)</f>
+        <v>2.8639144710520866E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125">
+        <f>J86</f>
+        <v>12.992739912756473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>179</v>
+      </c>
+      <c r="B126">
+        <f>0.042</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>180</v>
+      </c>
+      <c r="B127">
+        <v>-0.20610000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>181</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129">
+        <v>0.1348</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131">
+        <f>8*B125^2*B126</f>
+        <v>56.720593588019796</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132">
+        <f>-2*B125*(B127+2*B126*B128)</f>
+        <v>5.3556073920382188</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133">
+        <f>4*B125*B129+B128*B127</f>
+        <v>7.0056853609582905</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135">
+        <f>-B132/(2*B131)</f>
+        <v>-4.7210431461082239E-2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>158</v>
+      </c>
+      <c r="D135">
+        <f>(SQRT(4*B131*B133-B132^2))/(2*B131)</f>
+        <v>0.34825762912995101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138">
+        <f>E138/(0.5*E140*E139^2*B93)</f>
+        <v>0.54049780045564366</v>
+      </c>
+      <c r="D138" t="s">
+        <v>189</v>
+      </c>
+      <c r="E138">
+        <f>E88*9.81</f>
+        <v>60653.444886171084</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>192</v>
+      </c>
+      <c r="B139">
+        <v>-0.1026</v>
+      </c>
+      <c r="D139" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139">
+        <v>90.82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>193</v>
+      </c>
+      <c r="B140">
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="D140" t="s">
+        <v>191</v>
+      </c>
+      <c r="E140">
+        <f>H88</f>
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>194</v>
+      </c>
+      <c r="B141">
+        <v>-0.71079999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142">
+        <f>J88</f>
+        <v>14.281060115031401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>195</v>
+      </c>
+      <c r="B143">
+        <v>-6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>196</v>
+      </c>
+      <c r="B145" s="16">
+        <f>(2*B138*(B139*B127-B129*B140))/(B141*(B128*B127+4*B142*B129)-B143*(B128*B140+4*B142*B139))</f>
+        <v>2.019153386345117E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148">
+        <f>J84</f>
+        <v>13.141166425688802</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149">
+        <f>0.019</f>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B150">
+        <f>B141/(4*B148*B149)</f>
+        <v>-0.71170482710458061</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A83:E88">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A83:E88">
     <sortCondition ref="C83:C88"/>
   </sortState>
   <conditionalFormatting sqref="B34:J34">
@@ -5465,6 +6175,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>